--- a/data/income_statement/2digits/total/18_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/18_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>18-Printing and reproduction of recorded media</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>18-Printing and reproduction of recorded media</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>5061162.43256</v>
+        <v>5061162.432560001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>5569001.67198</v>
+        <v>5569001.671979999</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>6291200.14382</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>6758657.17694</v>
+        <v>6759028.98838</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>7344010.85602</v>
+        <v>7345999.00682</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>8141055.04144</v>
+        <v>8263211.23657</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>8733933.589169998</v>
+        <v>8887374.57089</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>9246069.825030001</v>
+        <v>9266810.113020001</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>10510214.29472</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>13615180.17063</v>
+        <v>13645567.62161</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>15022037.07949</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15395916.85882</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>17571835.311</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>4658304.9468</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>5193856.344089999</v>
+        <v>5193856.34409</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>5779766.80457</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6145161.540869999</v>
+        <v>6145532.18404</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>6706143.40105</v>
+        <v>6708104.442790001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7436064.40153</v>
+        <v>7512703.68088</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7915549.4647</v>
+        <v>8025935.542789999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>8315498.181740001</v>
+        <v>8335459.293730002</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>9465087.745189998</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>12118579.01827</v>
+        <v>12147408.67933</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>13417183.31529</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13759563.32093</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>15421065.741</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>340288.48483</v>
@@ -1037,73 +953,83 @@
         <v>438959.37778</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>542151.28656</v>
+        <v>542151.2865599999</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>572376.5301800001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>628129.5769699999</v>
+        <v>673252.31545</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>713623.21324</v>
+        <v>755928.2535499999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>811764.3371499999</v>
+        <v>812778.94878</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>912521.33129</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1305904.20905</v>
+        <v>1306963.88972</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1369298.72008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1398488.67653</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1880908.911</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>62569.00093</v>
+        <v>62569.00092999999</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>65390.84401</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>72473.96147000002</v>
+        <v>72473.96146999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>71344.34951</v>
+        <v>71345.51777999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>65490.92479</v>
+        <v>65518.03385000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>76861.06294</v>
+        <v>77255.24024000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>104760.91123</v>
+        <v>105510.77455</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>118807.30614</v>
+        <v>118571.87051</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>132605.21824</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>190696.94331</v>
+        <v>191195.05256</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>235555.04412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>237864.86136</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>269860.659</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>153674.03294</v>
@@ -1118,31 +1044,36 @@
         <v>165627.27389</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>222938.20507</v>
+        <v>222954.59689</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>224710.74414</v>
+        <v>226774.15194</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>272866.95584</v>
+        <v>274379.74407</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>339590.9211099999</v>
+        <v>339331.55485</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>292545.70223</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>352053.93637</v>
+        <v>352112.62547</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>298431.42959</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>302199.06576</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>437443.893</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>117266.548</v>
@@ -1157,31 +1088,36 @@
         <v>118413.25174</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>152622.541</v>
+        <v>152638.93282</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>162486.24084</v>
+        <v>164512.94063</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>198312.68532</v>
+        <v>199768.3483</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>276743.8922599999</v>
+        <v>276569.13818</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>214404.55423</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>252799.59268</v>
+        <v>252858.28178</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>224112.65062</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>227872.94443</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>327223.781</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>23814.71323</v>
@@ -1190,7 +1126,7 @@
         <v>23767.99606</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>38403.99993000001</v>
+        <v>38403.99993</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>36951.6456</v>
@@ -1199,28 +1135,33 @@
         <v>62097.05654999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>55226.90146</v>
+        <v>55262.60204999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>68246.43311</v>
+        <v>68284.39234999999</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>57040.66528</v>
+        <v>56956.0531</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>68366.64840999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>82273.24649</v>
+        <v>82273.24648999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>61516.7593</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>61519.03556</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>91975.28200000001</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>12592.77171</v>
@@ -1238,10 +1179,10 @@
         <v>8218.607520000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>6997.60184</v>
+        <v>6998.60926</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>6307.83741</v>
+        <v>6327.00342</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>5806.36357</v>
@@ -1253,16 +1194,21 @@
         <v>16981.0972</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>12802.01967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>12807.08577</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>18244.83</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4907488.39962</v>
+        <v>4907488.399620001</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>5410068.21669</v>
@@ -1271,73 +1217,83 @@
         <v>6121036.396939999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6593029.903049999</v>
+        <v>6593401.71449</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7121072.65095</v>
+        <v>7123044.409929999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7916344.2973</v>
+        <v>8036437.08463</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8461066.633329999</v>
+        <v>8612994.826819999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8906478.90392</v>
+        <v>8927478.55817</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>10217668.59249</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>13263126.23426</v>
+        <v>13293454.99614</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>14723605.6499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15093717.79306</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>17134391.418</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3967324.87468</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>4346114.212509999</v>
+        <v>4346114.21251</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4928111.857290001</v>
+        <v>4928111.85729</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>5271338.22517</v>
+        <v>5271532.849309999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5699581.96922</v>
+        <v>5701274.07</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>6434875.58344</v>
+        <v>6534463.83686</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6922846.697990001</v>
+        <v>7046464.208400001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>7277878.599640001</v>
+        <v>7295622.498370001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>8316086.085130001</v>
+        <v>8316086.08513</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>10841919.63604</v>
+        <v>10870417.50711</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>12115169.45834</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12453023.29348</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>13950917.564</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2524302.0747</v>
@@ -1346,40 +1302,45 @@
         <v>2723461.68949</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>3140659.923829999</v>
+        <v>3140659.92383</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>3321860.85216</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3600009.56682</v>
+        <v>3600015.622270001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>3978281.72498</v>
+        <v>4059362.39315</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4378150.594200001</v>
+        <v>4484403.71357</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4655523.97771</v>
+        <v>4672118.0214</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>5443531.45446</v>
+        <v>5443531.454459999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7180387.64827</v>
+        <v>7190883.934359999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>7859999.37961</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>7926784.07183</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>8929027.577</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>863385.5689599998</v>
+        <v>863385.5689600001</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>852366.78325</v>
@@ -1391,70 +1352,80 @@
         <v>1022532.87516</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1118700.55416</v>
+        <v>1119168.08198</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1341411.29727</v>
+        <v>1357527.31835</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1523965.00649</v>
+        <v>1538189.1323</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1472985.33371</v>
+        <v>1478039.65363</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1648211.41463</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2077851.63979</v>
+        <v>2090376.08957</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2650137.0681</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2889345.2621</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3172176.206</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>569170.7379000001</v>
+        <v>569170.7378999999</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>750979.67362</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>751570.5485799999</v>
+        <v>751570.5485800001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>897134.6603800001</v>
+        <v>897329.28452</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>952985.3078600001</v>
+        <v>954203.82537</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1085499.09766</v>
+        <v>1086501.15084</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>975126.2896100001</v>
+        <v>977299.89157</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1096918.89063</v>
+        <v>1093177.31017</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1169344.87856</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1519170.91978</v>
+        <v>1524648.05498</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1541071.5115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1573182.46042</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1796344.105</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>10466.49312</v>
@@ -1472,31 +1443,36 @@
         <v>27886.54038</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>29683.46353</v>
+        <v>31072.97452</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>45604.80768999999</v>
+        <v>46571.47095999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>52450.39758999999</v>
+        <v>52287.51317</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>54998.33748</v>
+        <v>54998.33747999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>64509.4282</v>
+        <v>64509.42820000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>63961.49913</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>63711.49913</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>53369.676</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>940163.5249399999</v>
+        <v>940163.52494</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>1063954.00418</v>
@@ -1505,34 +1481,39 @@
         <v>1192924.53965</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1321691.67788</v>
+        <v>1321868.86518</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1421490.68173</v>
+        <v>1421770.33993</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1481468.71386</v>
+        <v>1501973.24777</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1538219.93534</v>
+        <v>1566530.61842</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1628600.30428</v>
+        <v>1631856.0598</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1901582.50736</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2421206.59822</v>
+        <v>2423037.48903</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2608436.19156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2640694.49958</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3183473.854</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>689051.6145999999</v>
@@ -1541,40 +1522,45 @@
         <v>820914.0236099999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>892493.6384900002</v>
+        <v>892493.63849</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>980204.5369300001</v>
+        <v>980208.2103700001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1019061.57729</v>
+        <v>1019578.45041</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1093896.5972</v>
+        <v>1109366.40661</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1106316.58908</v>
+        <v>1126778.29549</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1170080.98538</v>
+        <v>1171537.19928</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1215778.557</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1461701.21425</v>
+        <v>1467899.90739</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1641766.96708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1661232.71162</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1844470.215</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>3622.1616</v>
+        <v>3622.161599999999</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>2287.53482</v>
@@ -1583,7 +1569,7 @@
         <v>4357.76554</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>6180.86736</v>
+        <v>6180.867360000001</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>3909.87298</v>
@@ -1592,7 +1578,7 @@
         <v>2434.30633</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2126.32668</v>
+        <v>2358.30642</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>3013.10229</v>
@@ -1601,16 +1587,21 @@
         <v>2949.68929</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>3543.11135</v>
+        <v>3551.01675</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>6004.59559</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>6123.414650000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>6981.487</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>236367.49491</v>
@@ -1619,37 +1610,42 @@
         <v>266138.6909700001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>278324.81138</v>
+        <v>278324.8113799999</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>322711.42446</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>311690.37749</v>
+        <v>311709.11023</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>318511.79777</v>
+        <v>324913.26644</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>330166.35925</v>
+        <v>336315.29029</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>313459.5883100001</v>
+        <v>313872.40447</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>320808.8066599999</v>
+        <v>320808.80666</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>409215.3073199999</v>
+        <v>409639.76375</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>480253.25235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>482738.713</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>533653.284</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>449061.95809</v>
@@ -1658,37 +1654,42 @@
         <v>552487.79782</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>609811.06157</v>
+        <v>609811.0615699999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>651312.24511</v>
+        <v>651315.9185499999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>703461.3268200001</v>
+        <v>703959.4672000001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>772950.4930999998</v>
+        <v>782018.83384</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>774023.90315</v>
+        <v>788104.69878</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>853608.2947800001</v>
+        <v>854651.6925199999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>892020.0610499999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1048942.79558</v>
+        <v>1054709.12689</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1155509.11914</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1172370.58397</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1303835.444</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>251111.91034</v>
@@ -1700,34 +1701,39 @@
         <v>300430.90116</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>341487.14095</v>
+        <v>341660.65481</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>402429.10444</v>
+        <v>402191.88952</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>387572.11666</v>
+        <v>392606.84116</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>431903.3462599999</v>
+        <v>439752.32293</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>458519.3189</v>
+        <v>460318.86052</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>685803.95036</v>
+        <v>685803.9503599999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>959505.3839700001</v>
+        <v>955137.58164</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>966669.22448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>979461.7879600001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1339003.639</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>177579.82772</v>
@@ -1742,31 +1748,36 @@
         <v>177409.30915</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>194163.76677</v>
+        <v>194188.18955</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>216362.28717</v>
+        <v>237132.4423</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>253932.78774</v>
+        <v>275358.33959</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>203871.46046</v>
+        <v>206162.12987</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>331476.18697</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>713886.5406599999</v>
+        <v>714278.2133200001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>463380.059</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>467289.45083</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>824524.7830000001</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>140.11688</v>
@@ -1793,25 +1804,30 @@
         <v>4324.70759</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>7970.83121</v>
+        <v>7970.831210000001</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>993.48952</v>
+        <v>993.4895199999999</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>2788.64376</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>850.633</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>8.55458</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>77.76818</v>
+        <v>77.76817999999999</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>60.21377</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>165.116</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>14989.80816</v>
@@ -1862,28 +1883,33 @@
         <v>23308.41946</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>34055.12175</v>
+        <v>34299.98949</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>38401.40248</v>
+        <v>38779.41197</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>27135.91916</v>
+        <v>28138.5892</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>39241.96466999999</v>
+        <v>39241.96467</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>69310.18528000001</v>
+        <v>69425.18775</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>83509.76200999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>84110.04059999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>74087.21400000001</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>228.14145</v>
@@ -1892,16 +1918,16 @@
         <v>361.27961</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>326.5978500000001</v>
+        <v>326.59785</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>279.77081</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>342.81867</v>
+        <v>342.8186700000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>658.6627</v>
+        <v>658.6627000000001</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>363.67943</v>
@@ -1916,13 +1942,18 @@
         <v>3405.86636</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>400.86012</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>402.15505</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3742.476</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>4806.85223</v>
@@ -1934,40 +1965,45 @@
         <v>5308.20473</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>8980.685360000001</v>
+        <v>8980.685359999999</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>5096.76022</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4655.67625</v>
+        <v>4663.57011</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5710.334900000001</v>
+        <v>5735.334900000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5948.383440000001</v>
+        <v>5961.21675</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>7342.787800000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>7069.374110000001</v>
+        <v>7074.011509999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>5726.655309999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>5726.65531</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>13138.588</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>2048.66503</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>478.99731</v>
+        <v>478.9973099999999</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>7391.0048</v>
@@ -1979,28 +2015,33 @@
         <v>3073.34358</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>5756.839970000001</v>
+        <v>5768.11918</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>3471.41878</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1835.37281</v>
+        <v>1836.11876</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>3009.31582</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3767.56185</v>
+        <v>3767.68042</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>4988.86087</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>5355.942</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>121992.51714</v>
@@ -2018,28 +2059,33 @@
         <v>94449.19525999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>98008.26011000002</v>
+        <v>117175.92208</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>142195.1395</v>
+        <v>162546.45088</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>103248.36901</v>
+        <v>104925.99697</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>188439.95749</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>537266.7759700001</v>
+        <v>537382.63151</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>249861.93672</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>252326.15958</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>607222.287</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>436.65976</v>
@@ -2060,10 +2106,10 @@
         <v>15221.92536</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>15166.52459</v>
+        <v>15188.19244</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>19241.01269</v>
+        <v>18903.78122</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>22360.60289</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>27741.60199</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>24986.309</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>177.52765</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0.0002</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>3.571</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>32750.98484</v>
@@ -2132,31 +2188,36 @@
         <v>44423.25595000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>57610.06482000001</v>
+        <v>57634.4876</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>52252.92757</v>
+        <v>53591.37992</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>45740.09046000001</v>
+        <v>46389.65359</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>41951.21825</v>
+        <v>41885.24187000001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>61053.36418999999</v>
+        <v>61053.36419</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>71791.14014</v>
+        <v>71947.19882000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>88361.73801999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>89205.33346999998</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>94972.647</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>110658.81914</v>
@@ -2171,31 +2232,36 @@
         <v>109014.62875</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>199292.96795</v>
+        <v>199296.59316</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>151426.36422</v>
+        <v>170941.41873</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>231227.74719</v>
+        <v>260399.7323</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>190130.42005</v>
+        <v>191983.54871</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>294816.25297</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>696988.67006</v>
+        <v>697414.30629</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>336806.07288</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>350985.8470799999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>649345.528</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2775.16999</v>
@@ -2207,7 +2273,7 @@
         <v>3036.37947</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2900.829639999999</v>
+        <v>2900.82964</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>2010.89353</v>
@@ -2222,19 +2288,24 @@
         <v>2059.34389</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4728.02874</v>
+        <v>4728.028740000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>3323.776020000001</v>
+        <v>3327.44386</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>4938.99805</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>4948.08353</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>6446.827</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>21266.94891</v>
@@ -2252,13 +2323,13 @@
         <v>21695.73029</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>13227.06692</v>
+        <v>13344.02845</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>23011.07461</v>
+        <v>23100.04265</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>26069.41166</v>
+        <v>26179.93766</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>31996.94892</v>
@@ -2267,13 +2338,18 @@
         <v>25914.56478</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>39940.10685</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>51814.82687</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>29656.824</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>286.65041</v>
@@ -2294,7 +2370,7 @@
         <v>145.84252</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>54.08407999999999</v>
+        <v>54.08408</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>86.41199</v>
@@ -2306,13 +2382,18 @@
         <v>1490.30895</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>291.60979</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>297.60979</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>5947.628</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>70156.99401000001</v>
@@ -2327,31 +2408,36 @@
         <v>69320.50751000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>142480.30387</v>
+        <v>142483.92908</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>96348.27502999999</v>
+        <v>115409.71121</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>174236.28087</v>
+        <v>203319.29794</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>136382.25454</v>
+        <v>138126.12962</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>219340.67518</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>622343.1259199999</v>
+        <v>622702.59209</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>247272.82391</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>249328.68489</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>559441.0919999999</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>342.84691</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>21123.0639</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>21668.936</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>20.30952</v>
@@ -2405,7 +2496,7 @@
         <v>56.70429</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>88.65944999999999</v>
+        <v>88.65945000000001</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>0.01822</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>15809.89939</v>
@@ -2447,28 +2543,33 @@
         <v>19022.14028</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>21940.5416</v>
+        <v>22277.1984</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>9304.849090000002</v>
+        <v>9304.84909</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>11668.6032</v>
+        <v>11667.33078</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>15960.87191</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>16423.25265</v>
+        <v>16485.75487</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>23239.47038</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>23473.5781</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>26184.221</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>174300.49023</v>
@@ -2480,34 +2581,39 @@
         <v>199946.99036</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>170729.62676</v>
+        <v>170734.69874</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>198073.86064</v>
+        <v>198241.24404</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>192209.91807</v>
+        <v>196702.64193</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>227713.91991</v>
+        <v>233177.36807</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>245695.65557</v>
+        <v>245884.22814</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>302512.41029</v>
+        <v>302512.4102900001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>484896.3023600001</v>
+        <v>485224.0450700001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>412886.2762</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>418971.04357</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>363492.453</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>168351.12841</v>
@@ -2519,34 +2625,39 @@
         <v>172989.4435</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>160722.40509</v>
+        <v>160727.47707</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>174486.41402</v>
+        <v>174653.79742</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>184340.13049</v>
+        <v>188345.96989</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>219886.77958</v>
+        <v>224682.5811</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>236288.16302</v>
+        <v>236476.73559</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>289447.64465</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>468827.98276</v>
+        <v>469146.92501</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>385715.43392</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>391796.52101</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>313994.447</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>5949.36182</v>
@@ -2564,10 +2675,10 @@
         <v>23587.44662</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>7869.78758</v>
+        <v>8356.672039999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>7827.14033</v>
+        <v>8494.786970000001</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>9407.492550000001</v>
@@ -2576,16 +2687,21 @@
         <v>13064.76564</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>16068.3196</v>
+        <v>16077.12006</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>27170.84228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>27174.52256</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>49498.006</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>143732.42869</v>
@@ -2597,73 +2713,83 @@
         <v>110404.015</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>239152.19459</v>
+        <v>239320.63647</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>199226.04262</v>
+        <v>198842.24187</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>260298.12154</v>
+        <v>262095.2228</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>226894.4669</v>
+        <v>221533.56215</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>226564.70374</v>
+        <v>228613.21354</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>419951.47407</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>491506.95221</v>
+        <v>486777.4436</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>680356.9344</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>676794.3481400001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1150690.441</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>73832.88145</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>39068.92445</v>
+        <v>39068.92445000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>45648.10143</v>
+        <v>45648.10143000001</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>69648.84848999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>40105.89961</v>
+        <v>40142.62104999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>97529.19558</v>
+        <v>98627.50711000002</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>72940.87412000001</v>
+        <v>74906.33606</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>121682.9812</v>
+        <v>121654.78717</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>80836.80605000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>73687.74941999999</v>
+        <v>73926.32726999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>150110.04221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>154234.58301</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>128969.686</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>300.38116</v>
@@ -2684,25 +2810,30 @@
         <v>237.70386</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>741.62622</v>
+        <v>791.22061</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>742.83296</v>
+        <v>947.25478</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1769.04849</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>507.0319900000001</v>
+        <v>510.15063</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1702.53061</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1709.13262</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2691.199</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>73532.50029</v>
@@ -2717,34 +2848,39 @@
         <v>68482.74128999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>39465.19536</v>
+        <v>39501.9168</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>97291.49172000001</v>
+        <v>98389.80325</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>72199.2479</v>
+        <v>74115.11545</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>120940.14824</v>
+        <v>120707.53239</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>79067.75756</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>73180.71742999999</v>
+        <v>73416.17664000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>148407.5116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>152525.45039</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>126278.487</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>68096.43516000001</v>
+        <v>68096.43515999999</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>87851.16252000001</v>
@@ -2753,40 +2889,45 @@
         <v>218222.47077</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>93914.11027999999</v>
+        <v>93914.11028000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>60844.28301000001</v>
+        <v>60906.34240000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>195710.79156</v>
+        <v>196389.91078</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>57392.68866</v>
+        <v>58525.35818</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>183269.74088</v>
+        <v>183125.22213</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>74980.28031</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>183586.6188</v>
+        <v>184676.83196</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>104317.6859</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>111628.94378</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>105679.379</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>4356.60821</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>6136.055579999999</v>
+        <v>6136.05558</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>6829.72598</v>
@@ -2798,10 +2939,10 @@
         <v>6908.04214</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>4237.50614</v>
+        <v>4342.73099</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>5285.606589999999</v>
+        <v>5295.32291</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>5346.269060000001</v>
@@ -2810,16 +2951,21 @@
         <v>10050.52619</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>14113.4276</v>
+        <v>14119.02532</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>20221.52991</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>20225.81644</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>23419.265</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1600.67054</v>
@@ -2837,28 +2983,33 @@
         <v>1226.12129</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2943.4375</v>
+        <v>2975.61625</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1579.02452</v>
+        <v>1652.7827</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5926.560820000001</v>
+        <v>5875.77242</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>2527.59816</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3399.101320000001</v>
+        <v>3479.77511</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2719.32306</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2796.02332</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3958.05</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>62139.15641</v>
@@ -2870,34 +3021,39 @@
         <v>209185.39987</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>83272.33549</v>
+        <v>83272.33549000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>52710.11958000001</v>
+        <v>52772.17897</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>188529.84792</v>
+        <v>189071.56354</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>50528.05755</v>
+        <v>51577.25256999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>171996.911</v>
+        <v>171903.18065</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>62402.15596</v>
+        <v>62402.15596000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>166074.08988</v>
+        <v>167078.03153</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>81376.83292999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>88607.10402000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>78302.064</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>149468.87498</v>
@@ -2909,34 +3065,39 @@
         <v>-62170.35434000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>214886.9328</v>
+        <v>215055.37468</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>178487.65922</v>
+        <v>178078.52052</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>162116.52556</v>
+        <v>164332.81913</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>242442.65236</v>
+        <v>237914.54003</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>164977.94406</v>
+        <v>167142.77858</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>425807.9998100001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>381608.08283</v>
+        <v>376026.93891</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>726149.2907100001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>719399.9873699999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1173980.748</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>50698.79441</v>
@@ -2948,70 +3109,78 @@
         <v>60686.75869</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>65899.25569999999</v>
+        <v>65933.24100999998</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>70441.74759</v>
+        <v>70464.34621</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>72725.08667</v>
+        <v>72749.54567000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>69601.15183</v>
+        <v>69940.36453000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>76962.03644000001</v>
+        <v>77334.07390999999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>102876.46641</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>149134.86143</v>
+        <v>149247.41033</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>181290.19224</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>182586.72869</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>248743.126</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>98770.08056999999</v>
+        <v>98770.08057000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>34660.26117000001</v>
+        <v>34660.26117</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>-122857.11303</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>148987.6771</v>
+        <v>149122.13367</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>108045.91163</v>
+        <v>107614.17431</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>89391.43888999999</v>
+        <v>91583.27346000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>172841.50053</v>
+        <v>167974.1755</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>88015.90762</v>
+        <v>89808.70467000002</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>322931.5334</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>232473.2214</v>
+        <v>226779.52858</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>544859.0984700001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>536813.25868</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>925237.622</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>4163</v>
@@ -3041,31 +3213,34 @@
         <v>4120</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3877</v>
+        <v>3880</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3727</v>
+        <v>3735</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3651</v>
+        <v>3679</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3702</v>
+        <v>3724</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>3786</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3541</v>
+        <v>3840</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3520</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3929</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>